--- a/INTLINE/data/134/DEUSTATIS/Foreign trade - EGW1 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Foreign trade - EGW1 codes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="44">
   <si>
     <t>Exports and imports (foreign trade): Germany, months,
 classifications of trading goods</t>
@@ -145,7 +145,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:47:31</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:26:31</t>
   </si>
 </sst>
 </file>
@@ -927,7 +927,7 @@
     <col min="1" max="1" style="7" width="12.7109375" collapsed="false"/>
     <col min="4" max="4" width="8.8984375" customWidth="true"/>
     <col min="6" max="6" width="11.09375" customWidth="true"/>
-    <col min="7" max="7" width="19.66796875" customWidth="true"/>
+    <col min="7" max="7" width="19.7578125" customWidth="true"/>
     <col min="8" max="8" width="11.09375" customWidth="true"/>
     <col min="5" max="5" width="9.99609375" customWidth="true"/>
     <col min="2" max="2" width="14.859375" style="7" customWidth="true"/>
@@ -9003,19 +9003,19 @@
         <v>14</v>
       </c>
       <c r="D344" t="n" s="10">
-        <v>6427688.0</v>
+        <v>6447534.0</v>
       </c>
       <c r="E344" t="n" s="10">
-        <v>1624176.0</v>
+        <v>1627385.0</v>
       </c>
       <c r="F344" t="n" s="10">
-        <v>1.06710666E8</v>
+        <v>1.06922899E8</v>
       </c>
       <c r="G344" t="n" s="10">
-        <v>6410018.0</v>
+        <v>6418210.0</v>
       </c>
       <c r="H344" t="n" s="10">
-        <v>9.8676472E7</v>
+        <v>9.8877304E7</v>
       </c>
     </row>
     <row r="345">
@@ -9026,19 +9026,19 @@
         <v>14</v>
       </c>
       <c r="D345" t="n" s="10">
-        <v>7479413.0</v>
+        <v>7511426.0</v>
       </c>
       <c r="E345" t="n" s="10">
-        <v>7323292.0</v>
+        <v>7325148.0</v>
       </c>
       <c r="F345" t="n" s="10">
-        <v>8.4818538E7</v>
+        <v>8.5038761E7</v>
       </c>
       <c r="G345" t="n" s="10">
-        <v>8326118.0</v>
+        <v>8357593.0</v>
       </c>
       <c r="H345" t="n" s="10">
-        <v>6.9169128E7</v>
+        <v>6.935602E7</v>
       </c>
     </row>
     <row r="346">
@@ -9052,19 +9052,19 @@
         <v>14</v>
       </c>
       <c r="D346" t="n" s="10">
-        <v>6394985.0</v>
+        <v>6421678.0</v>
       </c>
       <c r="E346" t="n" s="10">
-        <v>1674657.0</v>
+        <v>1681250.0</v>
       </c>
       <c r="F346" t="n" s="10">
-        <v>9.5923639E7</v>
+        <v>9.6227444E7</v>
       </c>
       <c r="G346" t="n" s="10">
-        <v>6253137.0</v>
+        <v>6265644.0</v>
       </c>
       <c r="H346" t="n" s="10">
-        <v>8.7995845E7</v>
+        <v>8.828055E7</v>
       </c>
     </row>
     <row r="347">
@@ -9075,19 +9075,19 @@
         <v>14</v>
       </c>
       <c r="D347" t="n" s="10">
-        <v>7478118.0</v>
+        <v>7548620.0</v>
       </c>
       <c r="E347" t="n" s="10">
-        <v>7704759.0</v>
+        <v>7711609.0</v>
       </c>
       <c r="F347" t="n" s="10">
-        <v>8.0981796E7</v>
+        <v>8.1379709E7</v>
       </c>
       <c r="G347" t="n" s="10">
-        <v>8122100.0</v>
+        <v>8182009.0</v>
       </c>
       <c r="H347" t="n" s="10">
-        <v>6.5154937E7</v>
+        <v>6.5486091E7</v>
       </c>
     </row>
     <row r="348">
@@ -9101,19 +9101,19 @@
         <v>14</v>
       </c>
       <c r="D348" t="n" s="10">
-        <v>6725100.0</v>
+        <v>6783024.0</v>
       </c>
       <c r="E348" t="n" s="10">
-        <v>1845347.0</v>
+        <v>1856287.0</v>
       </c>
       <c r="F348" t="n" s="10">
-        <v>1.08679676E8</v>
+        <v>1.09452061E8</v>
       </c>
       <c r="G348" t="n" s="10">
-        <v>7066934.0</v>
+        <v>7088959.0</v>
       </c>
       <c r="H348" t="n" s="10">
-        <v>9.9767395E7</v>
+        <v>1.00506816E8</v>
       </c>
     </row>
     <row r="349">
@@ -9124,19 +9124,19 @@
         <v>14</v>
       </c>
       <c r="D349" t="n" s="10">
-        <v>7730797.0</v>
+        <v>7833331.0</v>
       </c>
       <c r="E349" t="n" s="10">
-        <v>8336862.0</v>
+        <v>8352370.0</v>
       </c>
       <c r="F349" t="n" s="10">
-        <v>8.8559644E7</v>
+        <v>8.9434396E7</v>
       </c>
       <c r="G349" t="n" s="10">
-        <v>8001097.0</v>
+        <v>8072670.0</v>
       </c>
       <c r="H349" t="n" s="10">
-        <v>7.2221684E7</v>
+        <v>7.3009356E7</v>
       </c>
     </row>
     <row r="350">
@@ -9150,19 +9150,19 @@
         <v>14</v>
       </c>
       <c r="D350" t="n" s="10">
-        <v>6881172.0</v>
+        <v>6951264.0</v>
       </c>
       <c r="E350" t="n" s="10">
-        <v>1996146.0</v>
+        <v>2008713.0</v>
       </c>
       <c r="F350" t="n" s="10">
-        <v>1.11296021E8</v>
+        <v>1.12257517E8</v>
       </c>
       <c r="G350" t="n" s="10">
-        <v>7398775.0</v>
+        <v>7441970.0</v>
       </c>
       <c r="H350" t="n" s="10">
-        <v>1.019011E8</v>
+        <v>1.02806834E8</v>
       </c>
     </row>
     <row r="351">
@@ -9173,19 +9173,19 @@
         <v>14</v>
       </c>
       <c r="D351" t="n" s="10">
-        <v>7916549.0</v>
+        <v>8082823.0</v>
       </c>
       <c r="E351" t="n" s="10">
-        <v>1.0381946E7</v>
+        <v>1.0398102E7</v>
       </c>
       <c r="F351" t="n" s="10">
-        <v>9.4290064E7</v>
+        <v>9.5312807E7</v>
       </c>
       <c r="G351" t="n" s="10">
-        <v>8207732.0</v>
+        <v>8283686.0</v>
       </c>
       <c r="H351" t="n" s="10">
-        <v>7.5700385E7</v>
+        <v>7.663102E7</v>
       </c>
     </row>
     <row r="352">
@@ -9199,19 +9199,19 @@
         <v>14</v>
       </c>
       <c r="D352" t="n" s="10">
-        <v>6924417.0</v>
+        <v>7052974.0</v>
       </c>
       <c r="E352" t="n" s="10">
-        <v>1893843.0</v>
+        <v>1916487.0</v>
       </c>
       <c r="F352" t="n" s="10">
-        <v>1.15198536E8</v>
+        <v>1.16588495E8</v>
       </c>
       <c r="G352" t="n" s="10">
-        <v>7831112.0</v>
+        <v>7852348.0</v>
       </c>
       <c r="H352" t="n" s="10">
-        <v>1.05473581E8</v>
+        <v>1.06819661E8</v>
       </c>
     </row>
     <row r="353">
@@ -9222,19 +9222,19 @@
         <v>14</v>
       </c>
       <c r="D353" t="n" s="10">
-        <v>8272067.0</v>
+        <v>8589163.0</v>
       </c>
       <c r="E353" t="n" s="10">
-        <v>1.0899286E7</v>
+        <v>1.0922293E7</v>
       </c>
       <c r="F353" t="n" s="10">
-        <v>9.8263759E7</v>
+        <v>9.9880048E7</v>
       </c>
       <c r="G353" t="n" s="10">
-        <v>8737175.0</v>
+        <v>8861642.0</v>
       </c>
       <c r="H353" t="n" s="10">
-        <v>7.8627298E7</v>
+        <v>8.0096113E7</v>
       </c>
     </row>
     <row r="354">
@@ -9248,19 +9248,19 @@
         <v>14</v>
       </c>
       <c r="D354" t="n" s="10">
-        <v>6526280.0</v>
+        <v>6702716.0</v>
       </c>
       <c r="E354" t="n" s="10">
-        <v>2392919.0</v>
+        <v>2410663.0</v>
       </c>
       <c r="F354" t="n" s="10">
-        <v>1.0591116E8</v>
+        <v>1.07726854E8</v>
       </c>
       <c r="G354" t="n" s="10">
-        <v>7483099.0</v>
+        <v>7592307.0</v>
       </c>
       <c r="H354" t="n" s="10">
-        <v>9.6035141E7</v>
+        <v>9.7723884E7</v>
       </c>
     </row>
     <row r="355">
@@ -9271,19 +9271,19 @@
         <v>14</v>
       </c>
       <c r="D355" t="n" s="10">
-        <v>8284909.0</v>
+        <v>8748261.0</v>
       </c>
       <c r="E355" t="n" s="10">
-        <v>1.2853727E7</v>
+        <v>1.2944697E7</v>
       </c>
       <c r="F355" t="n" s="10">
-        <v>9.3353265E7</v>
+        <v>9.5920078E7</v>
       </c>
       <c r="G355" t="n" s="10">
-        <v>8263199.0</v>
+        <v>8511044.0</v>
       </c>
       <c r="H355" t="n" s="10">
-        <v>7.2236339E7</v>
+        <v>7.4464337E7</v>
       </c>
     </row>
     <row r="356" ht="50.6" customHeight="true">
@@ -9302,19 +9302,19 @@
         <v>14</v>
       </c>
       <c r="D357" t="n" s="10">
-        <v>5879818.0</v>
+        <v>6005694.0</v>
       </c>
       <c r="E357" t="n" s="10">
-        <v>1980273.0</v>
+        <v>2014130.0</v>
       </c>
       <c r="F357" t="n" s="10">
-        <v>9.9380317E7</v>
+        <v>1.02194792E8</v>
       </c>
       <c r="G357" t="n" s="10">
-        <v>7433416.0</v>
+        <v>7701316.0</v>
       </c>
       <c r="H357" t="n" s="10">
-        <v>8.9966629E7</v>
+        <v>9.2479346E7</v>
       </c>
     </row>
     <row r="358">
@@ -9325,19 +9325,19 @@
         <v>14</v>
       </c>
       <c r="D358" t="n" s="10">
-        <v>7098866.0</v>
+        <v>7408157.0</v>
       </c>
       <c r="E358" t="n" s="10">
-        <v>1.3740652E7</v>
+        <v>1.384032E7</v>
       </c>
       <c r="F358" t="n" s="10">
-        <v>9.1231274E7</v>
+        <v>9.3714763E7</v>
       </c>
       <c r="G358" t="n" s="10">
-        <v>7732707.0</v>
+        <v>8021116.0</v>
       </c>
       <c r="H358" t="n" s="10">
-        <v>6.9757915E7</v>
+        <v>7.1853327E7</v>
       </c>
     </row>
     <row r="359">
@@ -9350,20 +9350,20 @@
       <c r="C359" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D359" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="E359" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="F359" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="G359" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="H359" t="s" s="10">
-        <v>41</v>
+      <c r="D359" t="n" s="10">
+        <v>6702551.0</v>
+      </c>
+      <c r="E359" t="n" s="10">
+        <v>2065636.0</v>
+      </c>
+      <c r="F359" t="n" s="10">
+        <v>1.13393999E8</v>
+      </c>
+      <c r="G359" t="n" s="10">
+        <v>7852786.0</v>
+      </c>
+      <c r="H359" t="n" s="10">
+        <v>1.03475578E8</v>
       </c>
     </row>
     <row r="360">
@@ -9373,20 +9373,20 @@
       <c r="C360" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D360" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="E360" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="F360" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="G360" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="H360" t="s" s="10">
-        <v>41</v>
+      <c r="D360" t="n" s="10">
+        <v>8096815.0</v>
+      </c>
+      <c r="E360" t="n" s="10">
+        <v>1.1822341E7</v>
+      </c>
+      <c r="F360" t="n" s="10">
+        <v>9.7886386E7</v>
+      </c>
+      <c r="G360" t="n" s="10">
+        <v>8423374.0</v>
+      </c>
+      <c r="H360" t="n" s="10">
+        <v>7.7640671E7</v>
       </c>
     </row>
     <row r="361">
@@ -9399,20 +9399,20 @@
       <c r="C361" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D361" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="E361" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="F361" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="G361" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="H361" t="s" s="10">
-        <v>41</v>
+      <c r="D361" t="n" s="10">
+        <v>7463209.0</v>
+      </c>
+      <c r="E361" t="n" s="10">
+        <v>1985420.0</v>
+      </c>
+      <c r="F361" t="n" s="10">
+        <v>1.25224555E8</v>
+      </c>
+      <c r="G361" t="n" s="10">
+        <v>9747776.0</v>
+      </c>
+      <c r="H361" t="n" s="10">
+        <v>1.13491358E8</v>
       </c>
     </row>
     <row r="362">
@@ -9422,20 +9422,20 @@
       <c r="C362" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D362" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="E362" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="F362" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="G362" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="H362" t="s" s="10">
-        <v>41</v>
+      <c r="D362" t="n" s="10">
+        <v>9379315.0</v>
+      </c>
+      <c r="E362" t="n" s="10">
+        <v>1.4894022E7</v>
+      </c>
+      <c r="F362" t="n" s="10">
+        <v>1.11255089E8</v>
+      </c>
+      <c r="G362" t="n" s="10">
+        <v>1.1817834E7</v>
+      </c>
+      <c r="H362" t="n" s="10">
+        <v>8.4543233E7</v>
       </c>
     </row>
     <row r="363">
@@ -9448,20 +9448,20 @@
       <c r="C363" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D363" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="E363" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="F363" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="G363" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="H363" t="s" s="10">
-        <v>41</v>
+      <c r="D363" t="n" s="10">
+        <v>6862876.0</v>
+      </c>
+      <c r="E363" t="n" s="10">
+        <v>1728848.0</v>
+      </c>
+      <c r="F363" t="n" s="10">
+        <v>1.10736727E8</v>
+      </c>
+      <c r="G363" t="n" s="10">
+        <v>9408533.0</v>
+      </c>
+      <c r="H363" t="n" s="10">
+        <v>9.9599346E7</v>
       </c>
     </row>
     <row r="364">
@@ -9471,20 +9471,20 @@
       <c r="C364" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D364" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="E364" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="F364" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="G364" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="H364" t="s" s="10">
-        <v>41</v>
+      <c r="D364" t="n" s="10">
+        <v>8583671.0</v>
+      </c>
+      <c r="E364" t="n" s="10">
+        <v>1.3932881E7</v>
+      </c>
+      <c r="F364" t="n" s="10">
+        <v>1.03854339E8</v>
+      </c>
+      <c r="G364" t="n" s="10">
+        <v>1.0276392E7</v>
+      </c>
+      <c r="H364" t="n" s="10">
+        <v>7.9645067E7</v>
       </c>
     </row>
     <row r="365">
@@ -9915,7 +9915,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:47:36&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:26:36&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Foreign trade - EGW1 codes.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Foreign trade - EGW1 codes.xlsx
@@ -145,7 +145,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:26:31</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:38:04</t>
   </si>
 </sst>
 </file>
@@ -9915,7 +9915,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:26:36&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:38:09&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>